--- a/Requerimientos/fitness steel system diagrama de gantt.xlsx
+++ b/Requerimientos/fitness steel system diagrama de gantt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr showInkAnnotation="0" hidePivotFieldList="1" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3eecbba1e1155198/Escritorio/presentación proyecto/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\esteb\Documents\GitHub\ProyectoFSS\Requerimientos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="6_{85F168B4-B665-4848-8F63-ED57F59AF920}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{744239B7-95D3-4CDB-8D6C-8BA605C5FECD}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{917F8848-2288-4C46-B0E0-814D62543BB6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planificación" sheetId="1" r:id="rId1"/>
@@ -19,17 +19,11 @@
     <sheet name="Presupuesto" sheetId="4" r:id="rId4"/>
     <sheet name="Informes" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -550,7 +544,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="48">
+  <borders count="50">
     <border>
       <left/>
       <right/>
@@ -1091,6 +1085,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1103,7 +1125,7 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="188">
+  <cellXfs count="184">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
@@ -1355,32 +1377,9 @@
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1412,44 +1411,12 @@
     <xf numFmtId="14" fontId="20" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="29" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="37" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="30" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
@@ -1514,13 +1481,43 @@
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -1533,12 +1530,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1567,44 +1558,6 @@
     <xf numFmtId="14" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1623,14 +1576,35 @@
     <xf numFmtId="0" fontId="9" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="168" fontId="3" fillId="9" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1672,41 +1646,74 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="167" fontId="10" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="48" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="48" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
@@ -7995,7 +8002,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="isabela tapias jimenez" refreshedDate="43976.618543634257" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="7" xr:uid="{EBB2D120-9693-45CE-8047-B3DE0CA9A5F3}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="B11:G18" sheet="Recursos"/>
+    <worksheetSource ref="B16:G23" sheet="Recursos"/>
   </cacheSource>
   <cacheFields count="7">
     <cacheField name="Actividades" numFmtId="0">
@@ -8544,7 +8551,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AN469"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
@@ -8568,16 +8575,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:40" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="131" t="s">
+      <c r="C1" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
-      <c r="J1" s="131"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
+      <c r="I1" s="123"/>
+      <c r="J1" s="123"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
@@ -8610,14 +8617,14 @@
       <c r="AN1" s="2"/>
     </row>
     <row r="2" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="C2" s="131"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
-      <c r="I2" s="131"/>
-      <c r="J2" s="131"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="123"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
@@ -8697,14 +8704,14 @@
       <c r="C4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="143">
+      <c r="D4" s="133">
         <v>43748</v>
       </c>
-      <c r="E4" s="143"/>
-      <c r="F4" s="143"/>
-      <c r="G4" s="143"/>
-      <c r="H4" s="143"/>
-      <c r="I4" s="143"/>
+      <c r="E4" s="133"/>
+      <c r="F4" s="133"/>
+      <c r="G4" s="133"/>
+      <c r="H4" s="133"/>
+      <c r="I4" s="133"/>
       <c r="J4" s="11"/>
       <c r="K4" s="11"/>
       <c r="L4" s="12"/>
@@ -8739,12 +8746,12 @@
     </row>
     <row r="5" spans="2:40" x14ac:dyDescent="0.25">
       <c r="C5" s="13"/>
-      <c r="D5" s="144"/>
-      <c r="E5" s="144"/>
-      <c r="F5" s="144"/>
-      <c r="G5" s="144"/>
-      <c r="H5" s="144"/>
-      <c r="I5" s="144"/>
+      <c r="D5" s="134"/>
+      <c r="E5" s="134"/>
+      <c r="F5" s="134"/>
+      <c r="G5" s="134"/>
+      <c r="H5" s="134"/>
+      <c r="I5" s="134"/>
       <c r="J5" s="13"/>
       <c r="K5" s="13"/>
       <c r="L5" s="13"/>
@@ -8780,15 +8787,15 @@
     <row r="6" spans="2:40" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="13"/>
       <c r="D6" s="14"/>
-      <c r="E6" s="136" t="s">
+      <c r="E6" s="126" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="137"/>
-      <c r="G6" s="138"/>
-      <c r="H6" s="139" t="s">
+      <c r="F6" s="127"/>
+      <c r="G6" s="128"/>
+      <c r="H6" s="129" t="s">
         <v>20</v>
       </c>
-      <c r="I6" s="140"/>
+      <c r="I6" s="130"/>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
@@ -8858,7 +8865,7 @@
       <c r="AN7" s="2"/>
     </row>
     <row r="8" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B8" s="94"/>
+      <c r="B8" s="86"/>
       <c r="C8" s="20" t="s">
         <v>8</v>
       </c>
@@ -8893,13 +8900,13 @@
       <c r="AN8" s="2"/>
     </row>
     <row r="9" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B9" s="95" t="s">
+      <c r="B9" s="87" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="132" t="s">
+      <c r="C9" s="124" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="133"/>
+      <c r="D9" s="125"/>
       <c r="E9" s="38"/>
       <c r="F9" s="38"/>
       <c r="G9" s="24"/>
@@ -8933,24 +8940,24 @@
       <c r="AN9" s="2"/>
     </row>
     <row r="10" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B10" s="95">
+      <c r="B10" s="87">
         <v>1</v>
       </c>
-      <c r="C10" s="134" t="s">
+      <c r="C10" s="115" t="s">
         <v>67</v>
       </c>
-      <c r="D10" s="135"/>
-      <c r="E10" s="127">
+      <c r="D10" s="116"/>
+      <c r="E10" s="110">
         <v>43748</v>
       </c>
-      <c r="F10" s="127">
+      <c r="F10" s="110">
         <v>43774</v>
       </c>
       <c r="G10" s="79">
         <f>F10-E10</f>
         <v>26</v>
       </c>
-      <c r="H10" s="126" t="s">
+      <c r="H10" s="109" t="s">
         <v>70</v>
       </c>
       <c r="I10" s="26">
@@ -8981,13 +8988,13 @@
       <c r="AN10" s="2"/>
     </row>
     <row r="11" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B11" s="95">
+      <c r="B11" s="87">
         <v>2</v>
       </c>
-      <c r="C11" s="134" t="s">
+      <c r="C11" s="115" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="135"/>
+      <c r="D11" s="116"/>
       <c r="E11" s="78">
         <v>43775</v>
       </c>
@@ -9029,13 +9036,13 @@
       <c r="AN11" s="2"/>
     </row>
     <row r="12" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B12" s="95">
+      <c r="B12" s="87">
         <v>3</v>
       </c>
-      <c r="C12" s="141" t="s">
+      <c r="C12" s="131" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="142"/>
+      <c r="D12" s="132"/>
       <c r="E12" s="78">
         <v>43785</v>
       </c>
@@ -9081,13 +9088,13 @@
       <c r="AN12" s="2"/>
     </row>
     <row r="13" spans="2:40" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="95">
+      <c r="B13" s="87">
         <v>4</v>
       </c>
-      <c r="C13" s="134" t="s">
+      <c r="C13" s="115" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="135"/>
+      <c r="D13" s="116"/>
       <c r="E13" s="78">
         <v>43748</v>
       </c>
@@ -9131,13 +9138,13 @@
       <c r="AN13" s="2"/>
     </row>
     <row r="14" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B14" s="95">
+      <c r="B14" s="87">
         <v>5</v>
       </c>
-      <c r="C14" s="141" t="s">
+      <c r="C14" s="131" t="s">
         <v>68</v>
       </c>
-      <c r="D14" s="142"/>
+      <c r="D14" s="132"/>
       <c r="E14" s="78">
         <v>43960</v>
       </c>
@@ -9177,11 +9184,11 @@
       <c r="AN14" s="2"/>
     </row>
     <row r="15" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B15" s="95"/>
-      <c r="C15" s="132" t="s">
+      <c r="B15" s="87"/>
+      <c r="C15" s="124" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="133"/>
+      <c r="D15" s="125"/>
       <c r="E15" s="78"/>
       <c r="F15" s="78"/>
       <c r="G15" s="79">
@@ -9218,13 +9225,13 @@
       <c r="AN15" s="2"/>
     </row>
     <row r="16" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B16" s="95">
+      <c r="B16" s="87">
         <v>6</v>
       </c>
-      <c r="C16" s="134" t="s">
+      <c r="C16" s="115" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="135"/>
+      <c r="D16" s="116"/>
       <c r="E16" s="78">
         <v>43974</v>
       </c>
@@ -9270,13 +9277,13 @@
       <c r="AN16" s="2"/>
     </row>
     <row r="17" spans="2:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="95">
+      <c r="B17" s="87">
         <v>7</v>
       </c>
-      <c r="C17" s="134" t="s">
+      <c r="C17" s="115" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="135"/>
+      <c r="D17" s="116"/>
       <c r="E17" s="78"/>
       <c r="F17" s="78"/>
       <c r="G17" s="79">
@@ -9318,13 +9325,13 @@
       <c r="AN17" s="2"/>
     </row>
     <row r="18" spans="2:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="95">
+      <c r="B18" s="87">
         <v>8</v>
       </c>
-      <c r="C18" s="134" t="s">
+      <c r="C18" s="115" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="135"/>
+      <c r="D18" s="116"/>
       <c r="E18" s="78">
         <v>44004</v>
       </c>
@@ -9366,13 +9373,13 @@
       <c r="AN18" s="2"/>
     </row>
     <row r="19" spans="2:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="95">
+      <c r="B19" s="87">
         <v>9</v>
       </c>
-      <c r="C19" s="134" t="s">
+      <c r="C19" s="115" t="s">
         <v>69</v>
       </c>
-      <c r="D19" s="135"/>
+      <c r="D19" s="116"/>
       <c r="E19" s="78">
         <v>44002</v>
       </c>
@@ -9414,13 +9421,13 @@
       <c r="AN19" s="2"/>
     </row>
     <row r="20" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B20" s="95">
+      <c r="B20" s="87">
         <v>10</v>
       </c>
-      <c r="C20" s="147" t="s">
+      <c r="C20" s="117" t="s">
         <v>34</v>
       </c>
-      <c r="D20" s="148"/>
+      <c r="D20" s="118"/>
       <c r="E20" s="78"/>
       <c r="F20" s="78"/>
       <c r="G20" s="79">
@@ -9458,13 +9465,13 @@
       <c r="AN20" s="2"/>
     </row>
     <row r="21" spans="2:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="95">
+      <c r="B21" s="87">
         <v>11</v>
       </c>
-      <c r="C21" s="147" t="s">
+      <c r="C21" s="117" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="148"/>
+      <c r="D21" s="118"/>
       <c r="E21" s="78">
         <v>43996</v>
       </c>
@@ -9506,13 +9513,13 @@
       <c r="AN21" s="2"/>
     </row>
     <row r="22" spans="2:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="95">
+      <c r="B22" s="87">
         <v>12</v>
       </c>
-      <c r="C22" s="134" t="s">
+      <c r="C22" s="115" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="135"/>
+      <c r="D22" s="116"/>
       <c r="E22" s="78"/>
       <c r="F22" s="78"/>
       <c r="G22" s="79">
@@ -9550,11 +9557,11 @@
       <c r="AN22" s="2"/>
     </row>
     <row r="23" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B23" s="95"/>
-      <c r="C23" s="151" t="s">
+      <c r="B23" s="87"/>
+      <c r="C23" s="121" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="152"/>
+      <c r="D23" s="122"/>
       <c r="E23" s="78"/>
       <c r="F23" s="78"/>
       <c r="G23" s="79"/>
@@ -9588,13 +9595,13 @@
       <c r="AN23" s="2"/>
     </row>
     <row r="24" spans="2:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="95">
+      <c r="B24" s="87">
         <v>13</v>
       </c>
-      <c r="C24" s="134" t="s">
+      <c r="C24" s="115" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="135"/>
+      <c r="D24" s="116"/>
       <c r="E24" s="78"/>
       <c r="F24" s="78"/>
       <c r="G24" s="79">
@@ -9636,13 +9643,13 @@
       <c r="AN24" s="2"/>
     </row>
     <row r="25" spans="2:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="95">
+      <c r="B25" s="87">
         <v>14</v>
       </c>
-      <c r="C25" s="134" t="s">
+      <c r="C25" s="115" t="s">
         <v>38</v>
       </c>
-      <c r="D25" s="135"/>
+      <c r="D25" s="116"/>
       <c r="E25" s="78"/>
       <c r="F25" s="78"/>
       <c r="G25" s="79">
@@ -9684,11 +9691,11 @@
       <c r="AN25" s="2"/>
     </row>
     <row r="26" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B26" s="95"/>
-      <c r="C26" s="132" t="s">
+      <c r="B26" s="87"/>
+      <c r="C26" s="124" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="133"/>
+      <c r="D26" s="125"/>
       <c r="E26" s="78"/>
       <c r="F26" s="78"/>
       <c r="G26" s="79"/>
@@ -9722,13 +9729,13 @@
       <c r="AN26" s="2"/>
     </row>
     <row r="27" spans="2:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="95">
+      <c r="B27" s="87">
         <v>15</v>
       </c>
-      <c r="C27" s="134" t="s">
+      <c r="C27" s="115" t="s">
         <v>39</v>
       </c>
-      <c r="D27" s="135"/>
+      <c r="D27" s="116"/>
       <c r="E27" s="78"/>
       <c r="F27" s="78"/>
       <c r="G27" s="79">
@@ -9770,13 +9777,13 @@
       <c r="AN27" s="2"/>
     </row>
     <row r="28" spans="2:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="95">
+      <c r="B28" s="87">
         <v>16</v>
       </c>
-      <c r="C28" s="134" t="s">
+      <c r="C28" s="115" t="s">
         <v>40</v>
       </c>
-      <c r="D28" s="135"/>
+      <c r="D28" s="116"/>
       <c r="E28" s="78"/>
       <c r="F28" s="78"/>
       <c r="G28" s="79">
@@ -9818,9 +9825,9 @@
       <c r="AN28" s="2"/>
     </row>
     <row r="29" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B29" s="96"/>
-      <c r="C29" s="149"/>
-      <c r="D29" s="150"/>
+      <c r="B29" s="88"/>
+      <c r="C29" s="119"/>
+      <c r="D29" s="120"/>
       <c r="E29" s="23"/>
       <c r="F29" s="23"/>
       <c r="G29" s="79"/>
@@ -9851,16 +9858,16 @@
       <c r="AN29" s="2"/>
     </row>
     <row r="30" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B30" s="97"/>
-      <c r="C30" s="145" t="s">
+      <c r="B30" s="89"/>
+      <c r="C30" s="113" t="s">
         <v>3</v>
       </c>
-      <c r="D30" s="146"/>
-      <c r="E30" s="98">
+      <c r="D30" s="114"/>
+      <c r="E30" s="90">
         <f>E11</f>
         <v>43775</v>
       </c>
-      <c r="F30" s="98">
+      <c r="F30" s="90">
         <f>F28</f>
         <v>0</v>
       </c>
@@ -20573,17 +20580,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C27:D27"/>
     <mergeCell ref="C1:J2"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C26:D26"/>
@@ -20599,6 +20595,17 @@
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="D4:I5"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C27:D27"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
@@ -20630,10 +20637,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B2:M33"/>
+  <dimension ref="B2:M35"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -20677,479 +20684,483 @@
     <col min="91" max="91" width="26.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="153" t="s">
+    <row r="2" spans="2:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="164" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="165"/>
+      <c r="D2" s="165"/>
+      <c r="E2" s="165"/>
+      <c r="F2" s="165"/>
+      <c r="G2" s="165"/>
+      <c r="H2" s="166"/>
+    </row>
+    <row r="3" spans="2:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="135"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="136"/>
+      <c r="G3" s="136"/>
+      <c r="H3" s="137"/>
+    </row>
+    <row r="4" spans="2:8" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="135"/>
+      <c r="C4" s="136"/>
+      <c r="D4" s="136"/>
+      <c r="E4" s="136"/>
+      <c r="F4" s="136"/>
+      <c r="G4" s="136"/>
+      <c r="H4" s="137"/>
+    </row>
+    <row r="5" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="135"/>
+      <c r="C5" s="136"/>
+      <c r="D5" s="136"/>
+      <c r="E5" s="136"/>
+      <c r="F5" s="136"/>
+      <c r="G5" s="136"/>
+      <c r="H5" s="137"/>
+    </row>
+    <row r="6" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="138"/>
+      <c r="C6" s="139"/>
+      <c r="D6" s="139"/>
+      <c r="E6" s="139"/>
+      <c r="F6" s="139"/>
+      <c r="G6" s="139"/>
+      <c r="H6" s="140"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="180" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="153"/>
-      <c r="D2" s="153"/>
-    </row>
-    <row r="3" spans="2:12" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="86" t="s">
+      <c r="C7" s="180"/>
+      <c r="D7" s="178"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="183"/>
+      <c r="C8" s="183"/>
+      <c r="D8" s="179"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="181" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="81" t="s">
+      <c r="C9" s="182" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="82" t="s">
+      <c r="D9" s="80" t="s">
         <v>59</v>
       </c>
-      <c r="F4" s="154" t="s">
-        <v>61</v>
-      </c>
-      <c r="G4" s="155"/>
-      <c r="H4" s="155"/>
-      <c r="I4" s="155"/>
-      <c r="J4" s="155"/>
-      <c r="K4" s="155"/>
-      <c r="L4" s="156"/>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="85" t="s">
+    </row>
+    <row r="10" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="175" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="83">
+      <c r="C10" s="176">
         <v>1</v>
       </c>
-      <c r="D5" s="186">
+      <c r="D10" s="177">
         <v>3500</v>
       </c>
-      <c r="F5" s="157"/>
-      <c r="G5" s="158"/>
-      <c r="H5" s="158"/>
-      <c r="I5" s="158"/>
-      <c r="J5" s="158"/>
-      <c r="K5" s="158"/>
-      <c r="L5" s="159"/>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="85" t="s">
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="175" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="83">
+      <c r="C11" s="176">
         <v>1</v>
       </c>
-      <c r="D6" s="186">
+      <c r="D11" s="177">
         <v>3500</v>
       </c>
-      <c r="F6" s="157"/>
-      <c r="G6" s="158"/>
-      <c r="H6" s="158"/>
-      <c r="I6" s="158"/>
-      <c r="J6" s="158"/>
-      <c r="K6" s="158"/>
-      <c r="L6" s="159"/>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="85" t="s">
+    </row>
+    <row r="12" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="175" t="s">
         <v>73</v>
       </c>
-      <c r="C7" s="83">
+      <c r="C12" s="176">
         <v>1</v>
       </c>
-      <c r="D7" s="186">
+      <c r="D12" s="177">
         <v>3500</v>
       </c>
-      <c r="F7" s="157"/>
-      <c r="G7" s="158"/>
-      <c r="H7" s="158"/>
-      <c r="I7" s="158"/>
-      <c r="J7" s="158"/>
-      <c r="K7" s="158"/>
-      <c r="L7" s="159"/>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="85" t="s">
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="175" t="s">
         <v>76</v>
       </c>
-      <c r="C8" s="83">
+      <c r="C13" s="176">
         <v>1</v>
       </c>
-      <c r="D8" s="186">
+      <c r="D13" s="177">
         <v>3500</v>
       </c>
-      <c r="F8" s="160"/>
-      <c r="G8" s="161"/>
-      <c r="H8" s="161"/>
-      <c r="I8" s="161"/>
-      <c r="J8" s="161"/>
-      <c r="K8" s="161"/>
-      <c r="L8" s="162"/>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="87" t="s">
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="175" t="s">
         <v>77</v>
       </c>
-      <c r="C9" s="84">
+      <c r="C14" s="176">
         <v>1</v>
       </c>
-      <c r="D9" s="186">
+      <c r="D14" s="177">
         <v>3500</v>
       </c>
     </row>
-    <row r="10" spans="2:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="104" t="s">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="167" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="80" t="str">
-        <f>B5</f>
+      <c r="C16" s="168" t="str">
+        <f>B10</f>
         <v>Cesar Esteban Garzon Contreras</v>
       </c>
-      <c r="D11" s="80" t="str">
-        <f>B6</f>
+      <c r="D16" s="168" t="str">
+        <f>B11</f>
         <v>Sharol Nayibe Saenz Salgado</v>
       </c>
-      <c r="E11" s="80" t="str">
-        <f>B7</f>
+      <c r="E16" s="168" t="str">
+        <f>B12</f>
         <v>Isabela Tapias Jimenez</v>
       </c>
-      <c r="F11" s="80" t="str">
-        <f>B8</f>
+      <c r="F16" s="168" t="str">
+        <f>B13</f>
         <v>Jhon Sebastian Zamudio Avila</v>
       </c>
-      <c r="G11" s="107" t="str">
-        <f>B9</f>
+      <c r="G16" s="169" t="str">
+        <f>B14</f>
         <v>Brayan Stiven Epalza Guerrero</v>
       </c>
     </row>
-    <row r="12" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="108" t="str">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B17" s="170" t="str">
         <f>Planificación!C9</f>
         <v>FASE  DE ANALISIS</v>
       </c>
-      <c r="C12" s="128">
-        <f>SUM(C13:C16)</f>
+      <c r="C17" s="171">
+        <f>SUM(C18:C21)</f>
         <v>0.94</v>
       </c>
-      <c r="D12" s="128">
-        <f t="shared" ref="D12:G12" si="0">SUM(D13:D16)</f>
+      <c r="D17" s="171">
+        <f t="shared" ref="D17:G17" si="0">SUM(D18:D21)</f>
         <v>0.94</v>
       </c>
-      <c r="E12" s="128">
+      <c r="E17" s="171">
         <f t="shared" si="0"/>
         <v>0.94</v>
       </c>
-      <c r="F12" s="128">
+      <c r="F17" s="171">
         <f t="shared" si="0"/>
         <v>0.94</v>
       </c>
-      <c r="G12" s="128">
+      <c r="G17" s="171">
         <f t="shared" si="0"/>
         <v>0.94</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="109" t="str">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B18" s="172" t="str">
         <f>Planificación!C11</f>
         <v>Requerimientos</v>
       </c>
-      <c r="C13" s="100">
+      <c r="C18" s="173">
         <v>0.2</v>
       </c>
-      <c r="D13" s="100">
+      <c r="D18" s="173">
         <v>0.2</v>
       </c>
-      <c r="E13" s="100">
+      <c r="E18" s="173">
         <v>0.2</v>
       </c>
-      <c r="F13" s="100">
+      <c r="F18" s="173">
         <v>0.2</v>
       </c>
-      <c r="G13" s="100">
+      <c r="G18" s="173">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="109" t="str">
+      <c r="M18" s="91"/>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B19" s="172" t="str">
         <f>Planificación!C12</f>
         <v>Mapa de Procesos</v>
       </c>
-      <c r="C14" s="100">
+      <c r="C19" s="173">
         <v>0.25</v>
       </c>
-      <c r="D14" s="100">
+      <c r="D19" s="173">
         <v>0.25</v>
       </c>
-      <c r="E14" s="100">
+      <c r="E19" s="173">
         <v>0.25</v>
       </c>
-      <c r="F14" s="100">
+      <c r="F19" s="173">
         <v>0.25</v>
       </c>
-      <c r="G14" s="100">
+      <c r="G19" s="173">
         <v>0.25</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="109" t="str">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B20" s="172" t="str">
         <f>Planificación!C13</f>
         <v>Calidad Software</v>
       </c>
-      <c r="C15" s="100">
+      <c r="C20" s="173">
         <v>0.24</v>
       </c>
-      <c r="D15" s="100">
+      <c r="D20" s="173">
         <v>0.24</v>
       </c>
-      <c r="E15" s="100">
+      <c r="E20" s="173">
         <v>0.24</v>
       </c>
-      <c r="F15" s="100">
+      <c r="F20" s="173">
         <v>0.24</v>
       </c>
-      <c r="G15" s="100">
+      <c r="G20" s="173">
         <v>0.24</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="109" t="str">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B21" s="172" t="str">
         <f>Planificación!C14</f>
         <v>Diagrama Gantt/ costos / Recursos</v>
       </c>
-      <c r="C16" s="100">
+      <c r="C21" s="173">
         <v>0.25</v>
       </c>
-      <c r="D16" s="100">
+      <c r="D21" s="173">
         <v>0.25</v>
       </c>
-      <c r="E16" s="100">
+      <c r="E21" s="173">
         <v>0.25</v>
       </c>
-      <c r="F16" s="100">
+      <c r="F21" s="173">
         <v>0.25</v>
       </c>
-      <c r="G16" s="100">
+      <c r="G21" s="173">
         <v>0.25</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="108" t="str">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B22" s="170" t="str">
         <f>Planificación!C15</f>
         <v>FASE DE DISEÑO</v>
       </c>
-      <c r="C17" s="130">
-        <f>SUM(C18:C24)</f>
+      <c r="C22" s="174">
+        <f>SUM(C23:C29)</f>
         <v>0.47</v>
       </c>
-      <c r="D17" s="130">
-        <f>SUM(D18:D24)</f>
+      <c r="D22" s="174">
+        <f>SUM(D23:D29)</f>
         <v>0.47</v>
       </c>
-      <c r="E17" s="130">
-        <f>SUM(E18:E24)</f>
+      <c r="E22" s="174">
+        <f>SUM(E23:E29)</f>
         <v>0.47</v>
       </c>
-      <c r="F17" s="130">
-        <f>SUM(F18:F24)</f>
+      <c r="F22" s="174">
+        <f>SUM(F23:F29)</f>
         <v>0.47</v>
       </c>
-      <c r="G17" s="130">
-        <f>SUM(G18:G24)</f>
+      <c r="G22" s="174">
+        <f>SUM(G23:G29)</f>
         <v>0.47</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18" s="109" t="str">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B23" s="172" t="str">
         <f>Planificación!C16</f>
         <v>Casos de Uso</v>
       </c>
-      <c r="C18" s="100">
+      <c r="C23" s="173">
         <v>0.12</v>
       </c>
-      <c r="D18" s="100">
+      <c r="D23" s="173">
         <v>0.12</v>
       </c>
-      <c r="E18" s="100">
+      <c r="E23" s="173">
         <v>0.12</v>
       </c>
-      <c r="F18" s="100">
+      <c r="F23" s="173">
         <v>0.12</v>
       </c>
-      <c r="G18" s="100">
+      <c r="G23" s="173">
         <v>0.12</v>
       </c>
-      <c r="M18" s="101"/>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="109" t="str">
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B24" s="172" t="str">
         <f>Planificación!C17</f>
         <v>Diagrama de Clases</v>
       </c>
-      <c r="C19" s="100"/>
-      <c r="D19" s="100"/>
-      <c r="E19" s="100"/>
-      <c r="F19" s="100"/>
-      <c r="G19" s="100"/>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="109" t="str">
+      <c r="C24" s="173"/>
+      <c r="D24" s="173"/>
+      <c r="E24" s="173"/>
+      <c r="F24" s="173"/>
+      <c r="G24" s="173"/>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B25" s="172" t="str">
         <f>Planificación!C18</f>
         <v>Diagramas Distribución</v>
       </c>
-      <c r="C20" s="100">
+      <c r="C25" s="173">
         <v>0.11</v>
       </c>
-      <c r="D20" s="100">
+      <c r="D25" s="173">
         <v>0.11</v>
       </c>
-      <c r="E20" s="100">
+      <c r="E25" s="173">
         <v>0.11</v>
       </c>
-      <c r="F20" s="100">
+      <c r="F25" s="173">
         <v>0.11</v>
       </c>
-      <c r="G20" s="100">
+      <c r="G25" s="173">
         <v>0.11</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B21" s="109" t="str">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B26" s="172" t="str">
         <f>Planificación!C19</f>
         <v>Diagrama Relacional</v>
       </c>
-      <c r="C21" s="100">
+      <c r="C26" s="173">
         <v>0.12</v>
       </c>
-      <c r="D21" s="100">
+      <c r="D26" s="173">
         <v>0.12</v>
       </c>
-      <c r="E21" s="100">
+      <c r="E26" s="173">
         <v>0.12</v>
       </c>
-      <c r="F21" s="100">
+      <c r="F26" s="173">
         <v>0.12</v>
       </c>
-      <c r="G21" s="100">
+      <c r="G26" s="173">
         <v>0.12</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B22" s="109" t="str">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B27" s="172" t="str">
         <f>Planificación!C20</f>
         <v>Diccionario de Datos</v>
       </c>
-      <c r="C22" s="100"/>
-      <c r="D22" s="100"/>
-      <c r="E22" s="100"/>
-      <c r="F22" s="100"/>
-      <c r="G22" s="100"/>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B23" s="109" t="str">
+      <c r="C27" s="173"/>
+      <c r="D27" s="173"/>
+      <c r="E27" s="173"/>
+      <c r="F27" s="173"/>
+      <c r="G27" s="173"/>
+    </row>
+    <row r="28" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="172" t="str">
         <f>Planificación!C21</f>
         <v>Mockup del sistema</v>
       </c>
-      <c r="C23" s="100">
+      <c r="C28" s="173">
         <v>0.12</v>
       </c>
-      <c r="D23" s="100">
+      <c r="D28" s="173">
         <v>0.12</v>
       </c>
-      <c r="E23" s="100">
+      <c r="E28" s="173">
         <v>0.12</v>
       </c>
-      <c r="F23" s="100">
+      <c r="F28" s="173">
         <v>0.12</v>
       </c>
-      <c r="G23" s="100">
+      <c r="G28" s="173">
         <v>0.12</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B24" s="109" t="str">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B29" s="172" t="str">
         <f>Planificación!C22</f>
         <v>Arquitectura del sistema</v>
       </c>
-      <c r="C24" s="100"/>
-      <c r="D24" s="100"/>
-      <c r="E24" s="100"/>
-      <c r="F24" s="100"/>
-      <c r="G24" s="110"/>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B25" s="108" t="str">
+      <c r="C29" s="173"/>
+      <c r="D29" s="173"/>
+      <c r="E29" s="173"/>
+      <c r="F29" s="173"/>
+      <c r="G29" s="173"/>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B30" s="170" t="str">
         <f>Planificación!C23</f>
         <v>FASE DESARROLLO</v>
       </c>
-      <c r="C25" s="100"/>
-      <c r="D25" s="100"/>
-      <c r="E25" s="100"/>
-      <c r="F25" s="100"/>
-      <c r="G25" s="110"/>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B26" s="109" t="str">
+      <c r="C30" s="173"/>
+      <c r="D30" s="173"/>
+      <c r="E30" s="173"/>
+      <c r="F30" s="173"/>
+      <c r="G30" s="173"/>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B31" s="172" t="str">
         <f>Planificación!C24</f>
         <v>Desarrollo de interfaces</v>
       </c>
-      <c r="C26" s="100"/>
-      <c r="D26" s="100"/>
-      <c r="E26" s="100"/>
-      <c r="F26" s="100"/>
-      <c r="G26" s="110"/>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B27" s="109" t="str">
+      <c r="C31" s="173"/>
+      <c r="D31" s="173"/>
+      <c r="E31" s="173"/>
+      <c r="F31" s="173"/>
+      <c r="G31" s="173"/>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B32" s="172" t="str">
         <f>Planificación!C25</f>
         <v>Desarrollo del sistema</v>
       </c>
-      <c r="C27" s="100"/>
-      <c r="D27" s="100"/>
-      <c r="E27" s="100"/>
-      <c r="F27" s="100"/>
-      <c r="G27" s="110"/>
-    </row>
-    <row r="28" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="108" t="str">
+      <c r="C32" s="173"/>
+      <c r="D32" s="173"/>
+      <c r="E32" s="173"/>
+      <c r="F32" s="173"/>
+      <c r="G32" s="173"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="170" t="str">
         <f>Planificación!C26</f>
         <v>FASE DE PRUEBAS / INTEGRACIÓN</v>
       </c>
-      <c r="C28" s="100"/>
-      <c r="D28" s="100"/>
-      <c r="E28" s="100"/>
-      <c r="F28" s="100"/>
-      <c r="G28" s="110"/>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B29" s="109" t="str">
+      <c r="C33" s="173"/>
+      <c r="D33" s="173"/>
+      <c r="E33" s="173"/>
+      <c r="F33" s="173"/>
+      <c r="G33" s="173"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="172" t="str">
         <f>Planificación!C27</f>
         <v>Pruebas del sistema</v>
       </c>
-      <c r="C29" s="100"/>
-      <c r="D29" s="100"/>
-      <c r="E29" s="100"/>
-      <c r="F29" s="100"/>
-      <c r="G29" s="110"/>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B30" s="99" t="str">
+      <c r="C34" s="173"/>
+      <c r="D34" s="173"/>
+      <c r="E34" s="173"/>
+      <c r="F34" s="173"/>
+      <c r="G34" s="173"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="172" t="str">
         <f>Planificación!C28</f>
         <v>Documentación / Manuales</v>
       </c>
-      <c r="C30" s="106"/>
-      <c r="D30" s="106"/>
-      <c r="E30" s="106"/>
-      <c r="F30" s="106"/>
-      <c r="G30" s="111"/>
-    </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C33" s="88"/>
-      <c r="D33" s="88"/>
-      <c r="E33" s="88"/>
-      <c r="F33" s="88"/>
+      <c r="C35" s="173"/>
+      <c r="D35" s="173"/>
+      <c r="E35" s="173"/>
+      <c r="F35" s="173"/>
+      <c r="G35" s="173"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="F4:L8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B2:H6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="B12:B19 D11 B21:B30 G11" unlockedFormula="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -21172,18 +21183,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="L2" s="183" t="s">
+      <c r="L2" s="148" t="s">
         <v>55</v>
       </c>
-      <c r="M2" s="179">
+      <c r="M2" s="144">
         <v>0</v>
       </c>
-      <c r="N2" s="180"/>
+      <c r="N2" s="145"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="L3" s="183"/>
-      <c r="M3" s="181"/>
-      <c r="N3" s="182"/>
+      <c r="L3" s="148"/>
+      <c r="M3" s="146"/>
+      <c r="N3" s="147"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C4" s="47"/>
@@ -21199,26 +21210,26 @@
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
-      <c r="C5" s="163" t="s">
+      <c r="C5" s="161" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="164"/>
-      <c r="E5" s="165"/>
-      <c r="F5" s="163" t="s">
+      <c r="D5" s="162"/>
+      <c r="E5" s="163"/>
+      <c r="F5" s="161" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="164"/>
-      <c r="H5" s="164"/>
-      <c r="I5" s="165"/>
-      <c r="J5" s="176" t="s">
+      <c r="G5" s="162"/>
+      <c r="H5" s="162"/>
+      <c r="I5" s="163"/>
+      <c r="J5" s="141" t="s">
         <v>53</v>
       </c>
-      <c r="K5" s="177"/>
-      <c r="L5" s="178"/>
-      <c r="M5" s="184" t="s">
+      <c r="K5" s="142"/>
+      <c r="L5" s="143"/>
+      <c r="M5" s="149" t="s">
         <v>50</v>
       </c>
-      <c r="N5" s="184" t="s">
+      <c r="N5" s="149" t="s">
         <v>0</v>
       </c>
       <c r="O5" s="39" t="s">
@@ -21259,23 +21270,23 @@
       <c r="L6" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="M6" s="185"/>
-      <c r="N6" s="185"/>
+      <c r="M6" s="150"/>
+      <c r="N6" s="150"/>
       <c r="O6" s="45" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="90" t="s">
+      <c r="B7" s="82" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="53"/>
       <c r="D7" s="54"/>
       <c r="E7" s="55"/>
-      <c r="F7" s="118"/>
+      <c r="F7" s="101"/>
       <c r="G7" s="61"/>
       <c r="H7" s="62"/>
-      <c r="I7" s="119"/>
+      <c r="I7" s="102"/>
       <c r="J7" s="61"/>
       <c r="K7" s="62"/>
       <c r="L7" s="62"/>
@@ -21293,24 +21304,24 @@
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="91" t="str">
+      <c r="B8" s="83" t="str">
         <f>Planificación!C9</f>
         <v>FASE  DE ANALISIS</v>
       </c>
-      <c r="C8" s="166"/>
-      <c r="D8" s="167"/>
+      <c r="C8" s="151"/>
+      <c r="D8" s="152"/>
       <c r="E8" s="65">
         <v>0</v>
       </c>
-      <c r="F8" s="172"/>
-      <c r="G8" s="173"/>
-      <c r="H8" s="173"/>
-      <c r="I8" s="120">
+      <c r="F8" s="157"/>
+      <c r="G8" s="158"/>
+      <c r="H8" s="158"/>
+      <c r="I8" s="103">
         <f>SUM(I9:I13)</f>
         <v>0</v>
       </c>
-      <c r="J8" s="168"/>
-      <c r="K8" s="169"/>
+      <c r="J8" s="153"/>
+      <c r="K8" s="154"/>
       <c r="L8" s="66">
         <f>SUM(L9:L13)</f>
         <v>20000</v>
@@ -21323,7 +21334,7 @@
       <c r="O8" s="75"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="92" t="str">
+      <c r="B9" s="84" t="str">
         <f>Planificación!C11</f>
         <v>Requerimientos</v>
       </c>
@@ -21337,17 +21348,17 @@
         <f>C9*D9</f>
         <v>119000</v>
       </c>
-      <c r="F9" s="121"/>
-      <c r="G9" s="115">
+      <c r="F9" s="104"/>
+      <c r="G9" s="98">
         <v>0</v>
       </c>
-      <c r="H9" s="112">
+      <c r="H9" s="95">
         <v>0</v>
       </c>
-      <c r="I9" s="122">
+      <c r="I9" s="105">
         <v>0</v>
       </c>
-      <c r="J9" s="116" t="s">
+      <c r="J9" s="99" t="s">
         <v>83</v>
       </c>
       <c r="K9" s="5">
@@ -21368,18 +21379,18 @@
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="92"/>
-      <c r="C10" s="187"/>
-      <c r="D10" s="112"/>
-      <c r="E10" s="122"/>
-      <c r="F10" s="121"/>
-      <c r="G10" s="115"/>
-      <c r="H10" s="112"/>
-      <c r="I10" s="122"/>
-      <c r="J10" s="116" t="s">
+      <c r="B10" s="84"/>
+      <c r="C10" s="112"/>
+      <c r="D10" s="95"/>
+      <c r="E10" s="105"/>
+      <c r="F10" s="104"/>
+      <c r="G10" s="98"/>
+      <c r="H10" s="95"/>
+      <c r="I10" s="105"/>
+      <c r="J10" s="99" t="s">
         <v>84</v>
       </c>
-      <c r="K10" s="112">
+      <c r="K10" s="95">
         <v>10000</v>
       </c>
       <c r="L10" s="57">
@@ -21394,7 +21405,7 @@
       </c>
     </row>
     <row r="11" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="92" t="str">
+      <c r="B11" s="84" t="str">
         <f>Planificación!C12</f>
         <v>Mapa de Procesos</v>
       </c>
@@ -21408,14 +21419,14 @@
         <f t="shared" ref="E11:E28" si="0">C11*D11</f>
         <v>161000</v>
       </c>
-      <c r="F11" s="121"/>
-      <c r="G11" s="115"/>
-      <c r="H11" s="112"/>
-      <c r="I11" s="122">
+      <c r="F11" s="104"/>
+      <c r="G11" s="98"/>
+      <c r="H11" s="95"/>
+      <c r="I11" s="105">
         <f t="shared" ref="I11:I13" si="1">G11*H11</f>
         <v>0</v>
       </c>
-      <c r="J11" s="116"/>
+      <c r="J11" s="99"/>
       <c r="K11" s="5"/>
       <c r="L11" s="57">
         <f t="shared" ref="L11:L13" si="2">K11</f>
@@ -21427,12 +21438,12 @@
       </c>
       <c r="N11" s="72"/>
       <c r="O11" s="76">
-        <f t="shared" ref="O9:O29" si="4">M11-N11</f>
+        <f t="shared" ref="O11:O29" si="4">M11-N11</f>
         <v>161000</v>
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="92" t="str">
+      <c r="B12" s="84" t="str">
         <f>Planificación!C13</f>
         <v>Calidad Software</v>
       </c>
@@ -21444,14 +21455,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F12" s="121"/>
-      <c r="G12" s="115"/>
-      <c r="H12" s="112"/>
-      <c r="I12" s="122">
+      <c r="F12" s="104"/>
+      <c r="G12" s="98"/>
+      <c r="H12" s="95"/>
+      <c r="I12" s="105">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J12" s="116"/>
+      <c r="J12" s="99"/>
       <c r="K12" s="5"/>
       <c r="L12" s="57">
         <f t="shared" si="2"/>
@@ -21468,7 +21479,7 @@
       </c>
     </row>
     <row r="13" spans="2:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B13" s="92" t="str">
+      <c r="B13" s="84" t="str">
         <f>Planificación!C14</f>
         <v>Diagrama Gantt/ costos / Recursos</v>
       </c>
@@ -21482,14 +21493,14 @@
         <f t="shared" si="0"/>
         <v>112000</v>
       </c>
-      <c r="F13" s="121"/>
-      <c r="G13" s="115"/>
-      <c r="H13" s="112"/>
-      <c r="I13" s="122">
+      <c r="F13" s="104"/>
+      <c r="G13" s="98"/>
+      <c r="H13" s="95"/>
+      <c r="I13" s="105">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J13" s="116"/>
+      <c r="J13" s="99"/>
       <c r="K13" s="5"/>
       <c r="L13" s="57">
         <f t="shared" si="2"/>
@@ -21506,25 +21517,25 @@
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="91" t="str">
+      <c r="B14" s="83" t="str">
         <f>Planificación!C15</f>
         <v>FASE DE DISEÑO</v>
       </c>
-      <c r="C14" s="166"/>
-      <c r="D14" s="167"/>
+      <c r="C14" s="151"/>
+      <c r="D14" s="152"/>
       <c r="E14" s="65">
         <f>SUM(E15:E22)</f>
         <v>367500</v>
       </c>
-      <c r="F14" s="174"/>
-      <c r="G14" s="175"/>
-      <c r="H14" s="175"/>
-      <c r="I14" s="120">
+      <c r="F14" s="159"/>
+      <c r="G14" s="160"/>
+      <c r="H14" s="160"/>
+      <c r="I14" s="103">
         <f>SUM(I15:I22)</f>
         <v>0</v>
       </c>
-      <c r="J14" s="170"/>
-      <c r="K14" s="171"/>
+      <c r="J14" s="155"/>
+      <c r="K14" s="156"/>
       <c r="L14" s="65">
         <f>SUM(L15:L22)</f>
         <v>0</v>
@@ -21540,7 +21551,7 @@
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="92" t="str">
+      <c r="B15" s="84" t="str">
         <f>Planificación!C16</f>
         <v>Casos de Uso</v>
       </c>
@@ -21554,14 +21565,14 @@
         <f t="shared" si="0"/>
         <v>140000</v>
       </c>
-      <c r="F15" s="121"/>
-      <c r="G15" s="115"/>
-      <c r="H15" s="112"/>
-      <c r="I15" s="122">
+      <c r="F15" s="104"/>
+      <c r="G15" s="98"/>
+      <c r="H15" s="95"/>
+      <c r="I15" s="105">
         <f>G15*H15</f>
         <v>0</v>
       </c>
-      <c r="J15" s="116"/>
+      <c r="J15" s="99"/>
       <c r="K15" s="5"/>
       <c r="L15" s="57">
         <f>K15</f>
@@ -21578,7 +21589,7 @@
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="92" t="str">
+      <c r="B16" s="84" t="str">
         <f>Planificación!C17</f>
         <v>Diagrama de Clases</v>
       </c>
@@ -21588,14 +21599,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F16" s="121"/>
-      <c r="G16" s="115"/>
-      <c r="H16" s="112"/>
-      <c r="I16" s="122">
+      <c r="F16" s="104"/>
+      <c r="G16" s="98"/>
+      <c r="H16" s="95"/>
+      <c r="I16" s="105">
         <f t="shared" ref="I16:I22" si="5">G16*H16</f>
         <v>0</v>
       </c>
-      <c r="J16" s="116"/>
+      <c r="J16" s="99"/>
       <c r="K16" s="5"/>
       <c r="L16" s="57">
         <f t="shared" ref="L16:L22" si="6">K16</f>
@@ -21612,7 +21623,7 @@
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="92" t="str">
+      <c r="B17" s="84" t="str">
         <f>Planificación!C18</f>
         <v>Diagramas Distribución</v>
       </c>
@@ -21626,14 +21637,14 @@
         <f t="shared" si="0"/>
         <v>115500</v>
       </c>
-      <c r="F17" s="121"/>
-      <c r="G17" s="115"/>
-      <c r="H17" s="112"/>
-      <c r="I17" s="122">
+      <c r="F17" s="104"/>
+      <c r="G17" s="98"/>
+      <c r="H17" s="95"/>
+      <c r="I17" s="105">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J17" s="116"/>
+      <c r="J17" s="99"/>
       <c r="K17" s="5"/>
       <c r="L17" s="57">
         <f t="shared" si="6"/>
@@ -21650,7 +21661,7 @@
       </c>
     </row>
     <row r="18" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="92" t="str">
+      <c r="B18" s="84" t="str">
         <f>Planificación!C18</f>
         <v>Diagramas Distribución</v>
       </c>
@@ -21660,14 +21671,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F18" s="121"/>
-      <c r="G18" s="115"/>
-      <c r="H18" s="112"/>
-      <c r="I18" s="122">
+      <c r="F18" s="104"/>
+      <c r="G18" s="98"/>
+      <c r="H18" s="95"/>
+      <c r="I18" s="105">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J18" s="116"/>
+      <c r="J18" s="99"/>
       <c r="K18" s="5"/>
       <c r="L18" s="57">
         <f t="shared" si="6"/>
@@ -21684,7 +21695,7 @@
       </c>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B19" s="92" t="str">
+      <c r="B19" s="84" t="str">
         <f>Planificación!C19</f>
         <v>Diagrama Relacional</v>
       </c>
@@ -21698,14 +21709,14 @@
         <f t="shared" si="0"/>
         <v>56000</v>
       </c>
-      <c r="F19" s="121"/>
-      <c r="G19" s="115"/>
-      <c r="H19" s="112"/>
-      <c r="I19" s="122">
+      <c r="F19" s="104"/>
+      <c r="G19" s="98"/>
+      <c r="H19" s="95"/>
+      <c r="I19" s="105">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J19" s="116"/>
+      <c r="J19" s="99"/>
       <c r="K19" s="5"/>
       <c r="L19" s="57">
         <f t="shared" si="6"/>
@@ -21722,7 +21733,7 @@
       </c>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B20" s="92" t="str">
+      <c r="B20" s="84" t="str">
         <f>Planificación!C20</f>
         <v>Diccionario de Datos</v>
       </c>
@@ -21732,14 +21743,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="121"/>
-      <c r="G20" s="115"/>
-      <c r="H20" s="112"/>
-      <c r="I20" s="122">
+      <c r="F20" s="104"/>
+      <c r="G20" s="98"/>
+      <c r="H20" s="95"/>
+      <c r="I20" s="105">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J20" s="116"/>
+      <c r="J20" s="99"/>
       <c r="K20" s="5"/>
       <c r="L20" s="57">
         <f t="shared" si="6"/>
@@ -21756,7 +21767,7 @@
       </c>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B21" s="92" t="str">
+      <c r="B21" s="84" t="str">
         <f>Planificación!C21</f>
         <v>Mockup del sistema</v>
       </c>
@@ -21770,14 +21781,14 @@
         <f t="shared" si="0"/>
         <v>56000</v>
       </c>
-      <c r="F21" s="121"/>
-      <c r="G21" s="115"/>
-      <c r="H21" s="112"/>
-      <c r="I21" s="122">
+      <c r="F21" s="104"/>
+      <c r="G21" s="98"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="105">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J21" s="116"/>
+      <c r="J21" s="99"/>
       <c r="K21" s="5"/>
       <c r="L21" s="57">
         <f t="shared" si="6"/>
@@ -21794,7 +21805,7 @@
       </c>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B22" s="92" t="str">
+      <c r="B22" s="84" t="str">
         <f>Planificación!C22</f>
         <v>Arquitectura del sistema</v>
       </c>
@@ -21804,14 +21815,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F22" s="121"/>
-      <c r="G22" s="115"/>
-      <c r="H22" s="112"/>
-      <c r="I22" s="122">
+      <c r="F22" s="104"/>
+      <c r="G22" s="98"/>
+      <c r="H22" s="95"/>
+      <c r="I22" s="105">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J22" s="116"/>
+      <c r="J22" s="99"/>
       <c r="K22" s="5"/>
       <c r="L22" s="57">
         <f t="shared" si="6"/>
@@ -21828,25 +21839,25 @@
       </c>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B23" s="91" t="str">
+      <c r="B23" s="83" t="str">
         <f>Planificación!C23</f>
         <v>FASE DESARROLLO</v>
       </c>
-      <c r="C23" s="166"/>
-      <c r="D23" s="167"/>
+      <c r="C23" s="151"/>
+      <c r="D23" s="152"/>
       <c r="E23" s="65">
         <f>SUM(E24:E25)</f>
         <v>0</v>
       </c>
-      <c r="F23" s="174"/>
-      <c r="G23" s="175"/>
-      <c r="H23" s="175"/>
-      <c r="I23" s="120">
+      <c r="F23" s="159"/>
+      <c r="G23" s="160"/>
+      <c r="H23" s="160"/>
+      <c r="I23" s="103">
         <f>SUM(I24:I25)</f>
         <v>0</v>
       </c>
-      <c r="J23" s="170"/>
-      <c r="K23" s="171"/>
+      <c r="J23" s="155"/>
+      <c r="K23" s="156"/>
       <c r="L23" s="65">
         <f>SUM(L24:L25)</f>
         <v>0</v>
@@ -21862,7 +21873,7 @@
       </c>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B24" s="92" t="str">
+      <c r="B24" s="84" t="str">
         <f>Planificación!C24</f>
         <v>Desarrollo de interfaces</v>
       </c>
@@ -21872,14 +21883,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F24" s="121"/>
-      <c r="G24" s="115"/>
-      <c r="H24" s="112"/>
-      <c r="I24" s="122">
+      <c r="F24" s="104"/>
+      <c r="G24" s="98"/>
+      <c r="H24" s="95"/>
+      <c r="I24" s="105">
         <f>G24*H24</f>
         <v>0</v>
       </c>
-      <c r="J24" s="116"/>
+      <c r="J24" s="99"/>
       <c r="K24" s="5"/>
       <c r="L24" s="57">
         <f>K24</f>
@@ -21896,7 +21907,7 @@
       </c>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B25" s="92" t="str">
+      <c r="B25" s="84" t="str">
         <f>Planificación!C25</f>
         <v>Desarrollo del sistema</v>
       </c>
@@ -21906,14 +21917,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F25" s="121"/>
-      <c r="G25" s="115"/>
-      <c r="H25" s="112"/>
-      <c r="I25" s="122">
+      <c r="F25" s="104"/>
+      <c r="G25" s="98"/>
+      <c r="H25" s="95"/>
+      <c r="I25" s="105">
         <f>G25*H25</f>
         <v>0</v>
       </c>
-      <c r="J25" s="116"/>
+      <c r="J25" s="99"/>
       <c r="K25" s="5"/>
       <c r="L25" s="57">
         <f>K25</f>
@@ -21930,25 +21941,25 @@
       </c>
     </row>
     <row r="26" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="91" t="str">
+      <c r="B26" s="83" t="str">
         <f>Planificación!C26</f>
         <v>FASE DE PRUEBAS / INTEGRACIÓN</v>
       </c>
-      <c r="C26" s="166"/>
-      <c r="D26" s="167"/>
+      <c r="C26" s="151"/>
+      <c r="D26" s="152"/>
       <c r="E26" s="65">
         <f>SUM(E27:E28)</f>
         <v>0</v>
       </c>
-      <c r="F26" s="174"/>
-      <c r="G26" s="175"/>
-      <c r="H26" s="175"/>
-      <c r="I26" s="120">
+      <c r="F26" s="159"/>
+      <c r="G26" s="160"/>
+      <c r="H26" s="160"/>
+      <c r="I26" s="103">
         <f>SUM(I27:I28)</f>
         <v>0</v>
       </c>
-      <c r="J26" s="170"/>
-      <c r="K26" s="171"/>
+      <c r="J26" s="155"/>
+      <c r="K26" s="156"/>
       <c r="L26" s="65">
         <f>SUM(L27:L28)</f>
         <v>0</v>
@@ -21964,7 +21975,7 @@
       </c>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B27" s="92" t="str">
+      <c r="B27" s="84" t="str">
         <f>Planificación!C27</f>
         <v>Pruebas del sistema</v>
       </c>
@@ -21974,14 +21985,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F27" s="121"/>
-      <c r="G27" s="115"/>
-      <c r="H27" s="112"/>
-      <c r="I27" s="122">
+      <c r="F27" s="104"/>
+      <c r="G27" s="98"/>
+      <c r="H27" s="95"/>
+      <c r="I27" s="105">
         <f>G27*H27</f>
         <v>0</v>
       </c>
-      <c r="J27" s="116"/>
+      <c r="J27" s="99"/>
       <c r="K27" s="5"/>
       <c r="L27" s="57">
         <f>K27</f>
@@ -21998,7 +22009,7 @@
       </c>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B28" s="92" t="str">
+      <c r="B28" s="84" t="str">
         <f>Planificación!C28</f>
         <v>Documentación / Manuales</v>
       </c>
@@ -22008,14 +22019,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F28" s="121"/>
-      <c r="G28" s="115"/>
-      <c r="H28" s="112"/>
-      <c r="I28" s="122">
+      <c r="F28" s="104"/>
+      <c r="G28" s="98"/>
+      <c r="H28" s="95"/>
+      <c r="I28" s="105">
         <f>G28*H28</f>
         <v>0</v>
       </c>
-      <c r="J28" s="116"/>
+      <c r="J28" s="99"/>
       <c r="K28" s="5"/>
       <c r="L28" s="57">
         <f>K28</f>
@@ -22032,15 +22043,15 @@
       </c>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B29" s="93"/>
+      <c r="B29" s="85"/>
       <c r="C29" s="58"/>
       <c r="D29" s="59"/>
       <c r="E29" s="60"/>
-      <c r="F29" s="123"/>
-      <c r="G29" s="124"/>
-      <c r="H29" s="113"/>
-      <c r="I29" s="125"/>
-      <c r="J29" s="117"/>
+      <c r="F29" s="106"/>
+      <c r="G29" s="107"/>
+      <c r="H29" s="96"/>
+      <c r="I29" s="108"/>
+      <c r="J29" s="100"/>
       <c r="K29" s="59"/>
       <c r="L29" s="60"/>
       <c r="M29" s="59"/>
@@ -22051,7 +22062,7 @@
       </c>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B30" s="89" t="s">
+      <c r="B30" s="81" t="s">
         <v>3</v>
       </c>
       <c r="C30" s="51"/>
@@ -22091,7 +22102,7 @@
       <c r="C31" s="40"/>
       <c r="D31" s="41"/>
       <c r="E31" s="41"/>
-      <c r="F31" s="114"/>
+      <c r="F31" s="97"/>
       <c r="G31" s="40"/>
       <c r="H31" s="41"/>
       <c r="I31" s="41"/>
@@ -22104,11 +22115,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="M2:N3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C23:D23"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="J14:K14"/>
@@ -22118,11 +22129,11 @@
     <mergeCell ref="F14:H14"/>
     <mergeCell ref="F23:H23"/>
     <mergeCell ref="F26:H26"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="M2:N3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
   </mergeCells>
   <conditionalFormatting sqref="O30:O31">
     <cfRule type="colorScale" priority="2">
@@ -22241,34 +22252,34 @@
   </cols>
   <sheetData>
     <row r="24" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B24" s="103"/>
-      <c r="C24" s="101"/>
-      <c r="Z24" s="101"/>
-      <c r="AA24" s="101"/>
-      <c r="AB24" s="101"/>
-      <c r="AC24" s="101"/>
-      <c r="AD24" s="101"/>
-      <c r="AE24" s="101"/>
+      <c r="B24" s="93"/>
+      <c r="C24" s="91"/>
+      <c r="Z24" s="91"/>
+      <c r="AA24" s="91"/>
+      <c r="AB24" s="91"/>
+      <c r="AC24" s="91"/>
+      <c r="AD24" s="91"/>
+      <c r="AE24" s="91"/>
     </row>
     <row r="25" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B25" s="103"/>
-      <c r="C25" s="101"/>
+      <c r="B25" s="93"/>
+      <c r="C25" s="91"/>
     </row>
     <row r="26" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B26" s="103"/>
-      <c r="C26" s="101"/>
+      <c r="B26" s="93"/>
+      <c r="C26" s="91"/>
     </row>
     <row r="27" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B27" s="103"/>
-      <c r="C27" s="105"/>
+      <c r="B27" s="93"/>
+      <c r="C27" s="94"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="102" t="s">
+      <c r="B38" s="92" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="102" t="s">
+      <c r="A39" s="92" t="s">
         <v>65</v>
       </c>
       <c r="B39" t="s">
@@ -22285,103 +22296,103 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="103" t="s">
+      <c r="A40" s="93" t="s">
         <v>78</v>
       </c>
-      <c r="B40" s="129">
+      <c r="B40" s="111">
         <v>0.8</v>
       </c>
-      <c r="C40" s="129">
+      <c r="C40" s="111">
         <v>0.2</v>
       </c>
-      <c r="D40" s="129">
+      <c r="D40" s="111">
         <v>0.2</v>
       </c>
-      <c r="E40" s="129">
+      <c r="E40" s="111">
         <v>1.2</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="103" t="s">
+      <c r="A41" s="93" t="s">
         <v>79</v>
       </c>
-      <c r="B41" s="129">
+      <c r="B41" s="111">
         <v>0.8</v>
       </c>
-      <c r="C41" s="129">
+      <c r="C41" s="111">
         <v>0.2</v>
       </c>
-      <c r="D41" s="129">
+      <c r="D41" s="111">
         <v>0.2</v>
       </c>
-      <c r="E41" s="129">
+      <c r="E41" s="111">
         <v>1.2</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="103" t="s">
+      <c r="A42" s="93" t="s">
         <v>75</v>
       </c>
-      <c r="B42" s="129">
+      <c r="B42" s="111">
         <v>0.8</v>
       </c>
-      <c r="C42" s="129">
+      <c r="C42" s="111">
         <v>0.2</v>
       </c>
-      <c r="D42" s="129">
+      <c r="D42" s="111">
         <v>0.2</v>
       </c>
-      <c r="E42" s="129">
+      <c r="E42" s="111">
         <v>1.2</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="103" t="s">
+      <c r="A43" s="93" t="s">
         <v>74</v>
       </c>
-      <c r="B43" s="129">
+      <c r="B43" s="111">
         <v>0.8</v>
       </c>
-      <c r="C43" s="129">
+      <c r="C43" s="111">
         <v>0.2</v>
       </c>
-      <c r="D43" s="129">
+      <c r="D43" s="111">
         <v>0.2</v>
       </c>
-      <c r="E43" s="129">
+      <c r="E43" s="111">
         <v>1.2</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="103" t="s">
+      <c r="A44" s="93" t="s">
         <v>80</v>
       </c>
-      <c r="B44" s="129">
+      <c r="B44" s="111">
         <v>0.8</v>
       </c>
-      <c r="C44" s="129">
+      <c r="C44" s="111">
         <v>0.2</v>
       </c>
-      <c r="D44" s="129">
+      <c r="D44" s="111">
         <v>0.2</v>
       </c>
-      <c r="E44" s="129">
+      <c r="E44" s="111">
         <v>1.2</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F45" s="105"/>
+      <c r="F45" s="94"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="103"/>
-      <c r="B46" s="105"/>
-      <c r="C46" s="105"/>
-      <c r="D46" s="105"/>
-      <c r="E46" s="105"/>
-      <c r="F46" s="105"/>
+      <c r="A46" s="93"/>
+      <c r="B46" s="94"/>
+      <c r="C46" s="94"/>
+      <c r="D46" s="94"/>
+      <c r="E46" s="94"/>
+      <c r="F46" s="94"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="103"/>
+      <c r="A47" s="93"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
